--- a/biology/Zoologie/Coleophora_caespititiella/Coleophora_caespititiella.xlsx
+++ b/biology/Zoologie/Coleophora_caespititiella/Coleophora_caespititiella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Coléophore des joncs, Coleophora caespititiella, est une espèce de lépidoptères (papillons)  de la famille des Coleophoridae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ornix lacunaecolella (Duponchel, 1844)
 Coleophora lacunicolella
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est présente un peu partout en Europe. On la trouve également en Amérique du Nord. Les Coleophoridae sont reconnaissables à l'abri qu'ils se créent quand ils sont au stade pupaire.
-La larve se nourrit sur les joncs (Juncus), construisant un « fourreau » soyeux ambulant, qu'elle transporte sur la tête de la plante et dans lequel elle passe l'hiver. Les adultes sont petits et bruns avec des ailes en pointe[1].
+La larve se nourrit sur les joncs (Juncus), construisant un « fourreau » soyeux ambulant, qu'elle transporte sur la tête de la plante et dans lequel elle passe l'hiver. Les adultes sont petits et bruns avec des ailes en pointe.
 </t>
         </is>
       </c>
